--- a/Archive/ExportOrderDetailList2016092310161.xlsx
+++ b/Archive/ExportOrderDetailList2016092310161.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\g\outsource\TmallLBF\TmalLBF\Archive\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="26820" windowHeight="11400"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="26820" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="ExportOrderDetailList2016092310" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>订单编号</t>
   </si>
@@ -159,30 +164,35 @@
     <t>颜色分类：无光紫红</t>
   </si>
   <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方框内表示同一个订单包括多个产品</t>
-    </r>
+    <t>1817T228</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1321T045</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARCANCIL 巴黎闪粉喷雾PARISIAN SPRAY晶钻亮粉彩 钻石闪粉眼影粉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARCANCIL哑光纯色口红VERY MAT 法国原装进口持久滋润 保湿唇膏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bagge 巴吉赫</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -190,7 +200,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -198,7 +208,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -207,7 +217,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -216,7 +226,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -225,7 +235,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -233,7 +243,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -241,7 +251,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -249,7 +259,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -257,7 +267,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -266,7 +276,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -275,7 +285,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -283,7 +293,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -292,7 +302,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -300,7 +310,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -309,7 +319,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -318,7 +328,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -326,29 +336,23 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -892,48 +896,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1203,7 +1207,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1211,23 +1215,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="78.125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="25.375" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>"2375024027132076"</f>
         <v>2375024027132076</v>
@@ -1286,7 +1290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f>"2374403228319033"</f>
         <v>2374403228319033</v>
@@ -1313,7 +1317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>"2371901638019355"</f>
         <v>2371901638019355</v>
@@ -1340,13 +1344,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f>"2294035693880494"</f>
         <v>2294035693880494</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>288</v>
@@ -1364,16 +1368,16 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>"2371118207613491"</f>
         <v>2371118207613491</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>280</v>
@@ -1391,10 +1395,10 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="str">
         <f>"2370682006682506"</f>
         <v>2370682006682506</v>
@@ -1423,7 +1427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1">
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="str">
         <f>"2370682006682506"</f>
         <v>2370682006682506</v>
@@ -1452,7 +1456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="4" customFormat="1">
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="str">
         <f>"2370682006682506"</f>
         <v>2370682006682506</v>
@@ -1481,7 +1485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="4" customFormat="1">
+    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="str">
         <f>"2370682006682506"</f>
         <v>2370682006682506</v>
@@ -1510,7 +1514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="4" customFormat="1">
+    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="str">
         <f>"2370341425400397"</f>
         <v>2370341425400397</v>
@@ -1537,7 +1541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="4" customFormat="1">
+    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="str">
         <f>"2368987809037845"</f>
         <v>2368987809037845</v>
@@ -1564,7 +1568,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="4" customFormat="1">
+    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="str">
         <f>"2369109827696218"</f>
         <v>2369109827696218</v>
@@ -1591,7 +1595,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1">
+    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="str">
         <f>"2367013837998580"</f>
         <v>2367013837998580</v>
@@ -1620,7 +1624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="4" customFormat="1">
+    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="str">
         <f>"2367013837998580"</f>
         <v>2367013837998580</v>
@@ -1649,7 +1653,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="4" customFormat="1">
+    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="str">
         <f>"2368493812194248"</f>
         <v>2368493812194248</v>
@@ -1676,7 +1680,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="4" customFormat="1">
+    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="str">
         <f>"2201308196237669"</f>
         <v>2201308196237669</v>
@@ -1705,7 +1709,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="4" customFormat="1">
+    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="str">
         <f>"2201308196237669"</f>
         <v>2201308196237669</v>
@@ -1734,10 +1738,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
+    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="str">
+        <f>"2201308196237612"</f>
+        <v>2201308196237612</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="9">
+        <v>280</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
